--- a/medicine/Psychotrope/Saint-laurent_(cépage)/Saint-laurent_(cépage).xlsx
+++ b/medicine/Psychotrope/Saint-laurent_(cépage)/Saint-laurent_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Saint-laurent_(c%C3%A9page)</t>
+          <t>Saint-laurent_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le  saint-laurent est un cépage de cuve de raisins noirs.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Saint-laurent_(c%C3%A9page)</t>
+          <t>Saint-laurent_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon Christian Oberlin, le saint laurent viendrait du sud de l'Alsace. Johann Philipp Bronner l'a remarqué et le propagea au cours du XIXe siècle en Allemagne et en Autriche. Le cépage est autorisé dans de nombreux Länder en Allemagne (673 ha en 2006). Il est également autorisé en Autriche (450 ha) , en République Tchèque et en Slovaquie (2 000 ha).[réf. nécessaire]
 En France, le cultivar est en voie de disparition.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Saint-laurent_(c%C3%A9page)</t>
+          <t>Saint-laurent_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau duveteux blanc.
 Jeunes feuilles aranéeux, bronzées.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Saint-laurent_(c%C3%A9page)</t>
+          <t>Saint-laurent_(cépage)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de première époque: 3 - 0 jours avant le chasselas.
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Saint-laurent_(c%C3%A9page)</t>
+          <t>Saint-laurent_(cépage)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont moyennes et les baies sont de taille moyenne. La grappe est cylindrique. Le cépage est moyennement fertile mais il craint les gelées printanières due à son débourrement précoce.
 </t>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Saint-laurent_(c%C3%A9page)</t>
+          <t>Saint-laurent_(cépage)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,7 +659,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le saint laurent est connu sous le nom de Blauer Sankt Laurent, Laurenzitraube, Lorenztraube, lovrenac crni, lovrijenac, Pinot Saint Laurent (par erreur), Saint laurent noir, sentlovrenka, Svatovavřinecké, szent lörine.
 </t>
